--- a/example_files/pt-br/xlsx/2_consolidacao_resultados/input/resultados_processados_curada.xlsx
+++ b/example_files/pt-br/xlsx/2_consolidacao_resultados/input/resultados_processados_curada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c0c8761d3d702e/Nossa_Trabalho_OneDrive/CEP/resultados_seq_dez23/dev/analise_metabarcoding/example_files/pt-br/xlsx/2_consolidacao_resultados/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7A46345E-D56D-4F71-BF27-3F0D930E82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04562E31-AC06-439D-8CCB-2D52AD225615}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7A46345E-D56D-4F71-BF27-3F0D930E82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F4AF9A5-C164-4C93-9EE3-73C0203ECD67}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>tag</t>
   </si>
   <si>
-    <t>otu</t>
-  </si>
-  <si>
     <t>n_reads</t>
   </si>
   <si>
@@ -493,10 +490,13 @@
     <t>aliquota</t>
   </si>
   <si>
-    <t>otu_final_curada</t>
-  </si>
-  <si>
     <t>area_amostrador</t>
+  </si>
+  <si>
+    <t>otu/asv_final_curada</t>
+  </si>
+  <si>
+    <t>otu/asv</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -895,25 +895,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>136</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -948,24 +948,24 @@
         <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -983,24 +983,24 @@
         <v>99.26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1018,24 +1018,24 @@
         <v>99.25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1053,24 +1053,24 @@
         <v>99.26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1088,24 +1088,24 @@
         <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1123,24 +1123,24 @@
         <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1158,24 +1158,24 @@
         <v>99.29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1193,24 +1193,24 @@
         <v>100</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1228,24 +1228,24 @@
         <v>100</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1263,24 +1263,24 @@
         <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1298,24 +1298,24 @@
         <v>100</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1333,24 +1333,24 @@
         <v>100</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1368,24 +1368,24 @@
         <v>100</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1403,24 +1403,24 @@
         <v>100</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1438,24 +1438,24 @@
         <v>100</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,24 +1473,24 @@
         <v>100</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1508,24 +1508,24 @@
         <v>100</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1543,24 +1543,24 @@
         <v>97.04</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1578,24 +1578,24 @@
         <v>100</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1613,24 +1613,24 @@
         <v>100</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1648,24 +1648,24 @@
         <v>100</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1683,24 +1683,24 @@
         <v>97.08</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1718,24 +1718,24 @@
         <v>100</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1753,24 +1753,24 @@
         <v>99.27</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1788,24 +1788,24 @@
         <v>99.26</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1823,24 +1823,24 @@
         <v>100</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -1858,24 +1858,24 @@
         <v>97.83</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1893,24 +1893,24 @@
         <v>97.83</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1928,24 +1928,24 @@
         <v>100</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -1963,24 +1963,24 @@
         <v>100</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -1998,24 +1998,24 @@
         <v>100</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -2033,24 +2033,24 @@
         <v>100</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -2068,24 +2068,24 @@
         <v>100</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2103,24 +2103,24 @@
         <v>100</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2138,24 +2138,24 @@
         <v>100</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2173,24 +2173,24 @@
         <v>100</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2208,24 +2208,24 @@
         <v>100</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -2243,24 +2243,24 @@
         <v>100</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -2278,24 +2278,24 @@
         <v>100</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -2313,24 +2313,24 @@
         <v>100</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
         <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -2348,24 +2348,24 @@
         <v>100</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
         <v>51</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -2383,24 +2383,24 @@
         <v>99.26</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
         <v>51</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -2418,24 +2418,24 @@
         <v>100</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
         <v>51</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -2453,24 +2453,24 @@
         <v>100</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
         <v>51</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -2488,24 +2488,24 @@
         <v>100</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -2523,24 +2523,24 @@
         <v>100</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -2558,24 +2558,24 @@
         <v>96.27</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -2593,24 +2593,24 @@
         <v>100</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -2628,24 +2628,24 @@
         <v>100</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -2663,24 +2663,24 @@
         <v>100</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -2698,24 +2698,24 @@
         <v>100</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -2733,24 +2733,24 @@
         <v>99.26</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -2768,24 +2768,24 @@
         <v>100</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2803,24 +2803,24 @@
         <v>100</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -2838,24 +2838,24 @@
         <v>100</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2873,24 +2873,24 @@
         <v>100</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -2908,24 +2908,24 @@
         <v>100</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -2943,24 +2943,24 @@
         <v>99.26</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -2978,24 +2978,24 @@
         <v>97.06</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -3013,24 +3013,24 @@
         <v>100</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -3048,24 +3048,24 @@
         <v>100</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -3083,24 +3083,24 @@
         <v>100</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -3118,24 +3118,24 @@
         <v>100</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -3153,24 +3153,24 @@
         <v>95.59</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -3188,24 +3188,24 @@
         <v>100</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -3223,24 +3223,24 @@
         <v>100</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -3258,24 +3258,24 @@
         <v>100</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
         <v>65</v>
-      </c>
-      <c r="D69" t="s">
-        <v>66</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -3293,24 +3293,24 @@
         <v>100</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
         <v>65</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
       </c>
       <c r="E70">
         <v>7</v>
@@ -3328,24 +3328,24 @@
         <v>100</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
         <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>66</v>
       </c>
       <c r="E71">
         <v>7</v>
@@ -3363,24 +3363,24 @@
         <v>100</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
         <v>69</v>
-      </c>
-      <c r="D72" t="s">
-        <v>70</v>
       </c>
       <c r="E72">
         <v>7</v>
@@ -3398,24 +3398,24 @@
         <v>99.26</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
         <v>69</v>
-      </c>
-      <c r="D73" t="s">
-        <v>70</v>
       </c>
       <c r="E73">
         <v>7</v>
@@ -3433,24 +3433,24 @@
         <v>100</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74">
         <v>8</v>
@@ -3468,24 +3468,24 @@
         <v>97.04</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E75">
         <v>8</v>
@@ -3503,24 +3503,24 @@
         <v>100</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E76">
         <v>8</v>
@@ -3538,24 +3538,24 @@
         <v>100</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -3573,24 +3573,24 @@
         <v>100</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -3608,24 +3608,24 @@
         <v>97.04</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E79">
         <v>8</v>
@@ -3643,24 +3643,24 @@
         <v>100</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80">
         <v>8</v>
@@ -3678,24 +3678,24 @@
         <v>96.3</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E81">
         <v>8</v>
@@ -3713,24 +3713,24 @@
         <v>100</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
         <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3748,24 +3748,24 @@
         <v>96.21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
         <v>8</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3783,24 +3783,24 @@
         <v>100</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
         <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3818,24 +3818,24 @@
         <v>100</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
         <v>11</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -3853,24 +3853,24 @@
         <v>100</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
         <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -3888,24 +3888,24 @@
         <v>99.24</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -3923,24 +3923,24 @@
         <v>100</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -3958,24 +3958,24 @@
         <v>99.24</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -3993,24 +3993,24 @@
         <v>98.45</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -4028,24 +4028,24 @@
         <v>100</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -4063,24 +4063,24 @@
         <v>100</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -4098,24 +4098,24 @@
         <v>100</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -4133,24 +4133,24 @@
         <v>99.23</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -4168,24 +4168,24 @@
         <v>98.7</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -4203,24 +4203,24 @@
         <v>100</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -4238,24 +4238,24 @@
         <v>98.54</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -4273,24 +4273,24 @@
         <v>99.26</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -4308,24 +4308,24 @@
         <v>100</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
         <v>18</v>
-      </c>
-      <c r="D99" t="s">
-        <v>19</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -4343,24 +4343,24 @@
         <v>100</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
         <v>18</v>
-      </c>
-      <c r="D100" t="s">
-        <v>19</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -4378,24 +4378,24 @@
         <v>100</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
         <v>21</v>
-      </c>
-      <c r="D101" t="s">
-        <v>22</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -4413,24 +4413,24 @@
         <v>100</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
         <v>21</v>
-      </c>
-      <c r="D102" t="s">
-        <v>22</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -4448,24 +4448,24 @@
         <v>100</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
         <v>21</v>
-      </c>
-      <c r="D103" t="s">
-        <v>22</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -4483,24 +4483,24 @@
         <v>97.48</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
         <v>21</v>
-      </c>
-      <c r="D104" t="s">
-        <v>22</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -4518,24 +4518,24 @@
         <v>100</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -4553,24 +4553,24 @@
         <v>98.46</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -4588,24 +4588,24 @@
         <v>100</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -4623,24 +4623,24 @@
         <v>93.23</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -4658,24 +4658,24 @@
         <v>100</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -4693,24 +4693,24 @@
         <v>99.22</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -4728,24 +4728,24 @@
         <v>99.24</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -4763,24 +4763,24 @@
         <v>100</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -4798,24 +4798,24 @@
         <v>100</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -4833,24 +4833,24 @@
         <v>99.27</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -4868,24 +4868,24 @@
         <v>100</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -4903,24 +4903,24 @@
         <v>99.24</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -4938,24 +4938,24 @@
         <v>97.52</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -4973,24 +4973,24 @@
         <v>99.24</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -5008,24 +5008,24 @@
         <v>100</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
         <v>35</v>
-      </c>
-      <c r="D119" t="s">
-        <v>36</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -5043,24 +5043,24 @@
         <v>100</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
         <v>35</v>
-      </c>
-      <c r="D120" t="s">
-        <v>36</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -5078,24 +5078,24 @@
         <v>98.47</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
         <v>35</v>
-      </c>
-      <c r="D121" t="s">
-        <v>36</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -5113,24 +5113,24 @@
         <v>96.99</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
         <v>35</v>
-      </c>
-      <c r="D122" t="s">
-        <v>36</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -5148,24 +5148,24 @@
         <v>97.52</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
         <v>35</v>
-      </c>
-      <c r="D123" t="s">
-        <v>36</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -5183,24 +5183,24 @@
         <v>99.24</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -5218,24 +5218,24 @@
         <v>99.23</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -5253,24 +5253,24 @@
         <v>97.52</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -5288,24 +5288,24 @@
         <v>100</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -5323,24 +5323,24 @@
         <v>99.27</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E128">
         <v>4</v>
@@ -5358,24 +5358,24 @@
         <v>100</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -5393,24 +5393,24 @@
         <v>99.26</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -5428,24 +5428,24 @@
         <v>96.3</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -5463,24 +5463,24 @@
         <v>99.28</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E132">
         <v>4</v>
@@ -5498,24 +5498,24 @@
         <v>100</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -5533,24 +5533,24 @@
         <v>97.79</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -5568,24 +5568,24 @@
         <v>97.52</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -5603,24 +5603,24 @@
         <v>99.26</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -5638,24 +5638,24 @@
         <v>97.78</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -5673,24 +5673,24 @@
         <v>91.3</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C138" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" t="s">
         <v>44</v>
-      </c>
-      <c r="D138" t="s">
-        <v>45</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -5708,24 +5708,24 @@
         <v>100</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C139" t="s">
+        <v>43</v>
+      </c>
+      <c r="D139" t="s">
         <v>44</v>
-      </c>
-      <c r="D139" t="s">
-        <v>45</v>
       </c>
       <c r="E139">
         <v>4</v>
@@ -5743,24 +5743,24 @@
         <v>100</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -5778,24 +5778,24 @@
         <v>98.47</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -5813,24 +5813,24 @@
         <v>97.52</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -5848,24 +5848,24 @@
         <v>99.24</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E143">
         <v>4</v>
@@ -5883,24 +5883,24 @@
         <v>95.52</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -5918,24 +5918,24 @@
         <v>100</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -5953,24 +5953,24 @@
         <v>100</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -5988,24 +5988,24 @@
         <v>97.71</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -6023,24 +6023,24 @@
         <v>97.52</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -6058,24 +6058,24 @@
         <v>97.71</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -6093,24 +6093,24 @@
         <v>99.24</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -6128,24 +6128,24 @@
         <v>100</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B151" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -6163,24 +6163,24 @@
         <v>100</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E152">
         <v>5</v>
@@ -6198,24 +6198,24 @@
         <v>100</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C153" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" t="s">
         <v>51</v>
-      </c>
-      <c r="D153" t="s">
-        <v>52</v>
       </c>
       <c r="E153">
         <v>6</v>
@@ -6233,24 +6233,24 @@
         <v>99.26</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C154" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" t="s">
         <v>51</v>
-      </c>
-      <c r="D154" t="s">
-        <v>52</v>
       </c>
       <c r="E154">
         <v>6</v>
@@ -6268,24 +6268,24 @@
         <v>98.54</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B155" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C155" t="s">
+        <v>50</v>
+      </c>
+      <c r="D155" t="s">
         <v>51</v>
-      </c>
-      <c r="D155" t="s">
-        <v>52</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -6303,24 +6303,24 @@
         <v>99.26</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E156">
         <v>6</v>
@@ -6338,24 +6338,24 @@
         <v>100</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E157">
         <v>6</v>
@@ -6373,24 +6373,24 @@
         <v>97.71</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E158">
         <v>6</v>
@@ -6408,24 +6408,24 @@
         <v>100</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E159">
         <v>6</v>
@@ -6443,24 +6443,24 @@
         <v>100</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E160">
         <v>6</v>
@@ -6478,24 +6478,24 @@
         <v>96.18</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -6513,24 +6513,24 @@
         <v>100</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E162">
         <v>6</v>
@@ -6548,24 +6548,24 @@
         <v>96.21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E163">
         <v>6</v>
@@ -6583,24 +6583,24 @@
         <v>97.71</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -6618,24 +6618,24 @@
         <v>97.52</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E165">
         <v>6</v>
@@ -6653,24 +6653,24 @@
         <v>93.94</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E166">
         <v>6</v>
@@ -6688,24 +6688,24 @@
         <v>100</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -6723,24 +6723,24 @@
         <v>97.52</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E168">
         <v>6</v>
@@ -6758,24 +6758,24 @@
         <v>100</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -6793,24 +6793,24 @@
         <v>100</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E170">
         <v>6</v>
@@ -6828,24 +6828,24 @@
         <v>97.71</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E171">
         <v>6</v>
@@ -6863,24 +6863,24 @@
         <v>100</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E172">
         <v>6</v>
@@ -6898,24 +6898,24 @@
         <v>100</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B173" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E173">
         <v>6</v>
@@ -6933,24 +6933,24 @@
         <v>100</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E174">
         <v>6</v>
@@ -6968,24 +6968,24 @@
         <v>98.48</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -7003,24 +7003,24 @@
         <v>97.67</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E176">
         <v>6</v>
@@ -7038,24 +7038,24 @@
         <v>99.25</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E177">
         <v>6</v>
@@ -7073,24 +7073,24 @@
         <v>98.47</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E178">
         <v>6</v>
@@ -7108,24 +7108,24 @@
         <v>97.52</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E179">
         <v>6</v>
@@ -7143,24 +7143,24 @@
         <v>99.23</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E180">
         <v>6</v>
@@ -7178,24 +7178,24 @@
         <v>100</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E181">
         <v>6</v>
@@ -7213,24 +7213,24 @@
         <v>98.46</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E182">
         <v>6</v>
@@ -7248,24 +7248,24 @@
         <v>100</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -7283,24 +7283,24 @@
         <v>97.52</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -7318,24 +7318,24 @@
         <v>97.69</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C185" t="s">
+        <v>64</v>
+      </c>
+      <c r="D185" t="s">
         <v>65</v>
-      </c>
-      <c r="D185" t="s">
-        <v>66</v>
       </c>
       <c r="E185">
         <v>7</v>
@@ -7353,24 +7353,24 @@
         <v>100</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C186" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" t="s">
         <v>65</v>
-      </c>
-      <c r="D186" t="s">
-        <v>66</v>
       </c>
       <c r="E186">
         <v>7</v>
@@ -7388,24 +7388,24 @@
         <v>100</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C187" t="s">
+        <v>64</v>
+      </c>
+      <c r="D187" t="s">
         <v>65</v>
-      </c>
-      <c r="D187" t="s">
-        <v>66</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -7423,24 +7423,24 @@
         <v>100</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C188" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" t="s">
         <v>65</v>
-      </c>
-      <c r="D188" t="s">
-        <v>66</v>
       </c>
       <c r="E188">
         <v>7</v>
@@ -7458,24 +7458,24 @@
         <v>96.35</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C189" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D189" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E189">
         <v>7</v>
@@ -7493,24 +7493,24 @@
         <v>100</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C190" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E190">
         <v>7</v>
@@ -7528,24 +7528,24 @@
         <v>97.52</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C191" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E191">
         <v>7</v>
@@ -7563,24 +7563,24 @@
         <v>100</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C192" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -7598,24 +7598,24 @@
         <v>100</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C193" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -7633,24 +7633,24 @@
         <v>96.35</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B194" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E194">
         <v>7</v>
@@ -7668,24 +7668,24 @@
         <v>99.23</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B195" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D195" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E195">
         <v>8</v>
@@ -7703,24 +7703,24 @@
         <v>99.27</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B196" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D196" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -7738,24 +7738,24 @@
         <v>97.52</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B197" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D197" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E197">
         <v>8</v>
@@ -7773,24 +7773,24 @@
         <v>99.25</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D198" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E198">
         <v>8</v>
@@ -7808,24 +7808,24 @@
         <v>97.71</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D199" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E199">
         <v>8</v>
@@ -7843,10 +7843,10 @@
         <v>100</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/example_files/pt-br/xlsx/2_consolidacao_resultados/input/resultados_processados_curada.xlsx
+++ b/example_files/pt-br/xlsx/2_consolidacao_resultados/input/resultados_processados_curada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c0c8761d3d702e/Nossa_Trabalho_OneDrive/CEP/resultados_seq_dez23/dev/analise_metabarcoding/example_files/pt-br/xlsx/2_consolidacao_resultados/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7A46345E-D56D-4F71-BF27-3F0D930E82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F4AF9A5-C164-4C93-9EE3-73C0203ECD67}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7A46345E-D56D-4F71-BF27-3F0D930E82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72B273-5613-4EBF-B055-8D8C5241BBF8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,10 +493,10 @@
     <t>area_amostrador</t>
   </si>
   <si>
-    <t>otu/asv_final_curada</t>
-  </si>
-  <si>
     <t>otu/asv</t>
+  </si>
+  <si>
+    <t>taxon_final_curada</t>
   </si>
 </sst>
 </file>
@@ -582,6 +582,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,7 +876,7 @@
   <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +908,7 @@
         <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -916,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
